--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Usuario</t>
   </si>
@@ -38,9 +38,6 @@
     <t>sOFIA1</t>
   </si>
   <si>
-    <t>Sofia1</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>tHIGO11</t>
   </si>
   <si>
-    <t>Sofia11</t>
-  </si>
-  <si>
     <t>Recepcionista</t>
   </si>
   <si>
@@ -141,6 +135,21 @@
   </si>
   <si>
     <t>lucifer</t>
+  </si>
+  <si>
+    <t>mAXI11</t>
+  </si>
+  <si>
+    <t>maxi</t>
+  </si>
+  <si>
+    <t>maxi11</t>
+  </si>
+  <si>
+    <t>sofia1</t>
+  </si>
+  <si>
+    <t>sofia11</t>
   </si>
 </sst>
 </file>
@@ -491,9 +500,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -509,7 +518,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -520,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -531,24 +540,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>174</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>858585</v>
@@ -556,27 +565,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>40953059</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5">
         <v>43507</v>
@@ -584,7 +593,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>17</v>
@@ -592,13 +601,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>123456</v>
@@ -606,57 +615,57 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>29</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3">
         <v>4321321</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>142</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>858585</v>
@@ -664,21 +673,21 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5">
         <v>44606</v>
@@ -689,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -697,18 +706,18 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1">
         <v>142</v>
@@ -716,13 +725,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4">
         <v>39686868</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1">
         <v>666</v>
@@ -730,24 +739,56 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5">
         <v>45060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Usuario</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>sofia11</t>
+  </si>
+  <si>
+    <t>miguel condori</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.7109375" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -512,7 +515,7 @@
     <col min="2" max="16384" width="18.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -521,7 +524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,12 +552,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -563,7 +566,7 @@
         <v>858585</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -577,7 +580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,7 +594,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -599,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -613,7 +616,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -621,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -629,18 +632,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -653,11 +656,8 @@
       <c r="E12" s="1">
         <v>142</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -668,18 +668,18 @@
         <v>33</v>
       </c>
       <c r="E13" s="1">
-        <v>858585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>969696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -687,18 +687,24 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5">
         <v>44606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5">
+        <v>44610</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -714,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="4">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
@@ -788,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>52</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
